--- a/data/trans_orig/Q5411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC11F946-C944-4D3E-A8E8-A4DCC9D5CB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFA581A-D693-4142-8531-849954A31C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5857E8B0-1AC1-433F-BD46-E21DD02CDECC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0537F74D-9E70-4998-938E-C8438B2B21F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -98,55 +98,55 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,55 +161,55 @@
     <t>10,98%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
@@ -218,55 +218,55 @@
     <t>8,09%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>89,01%</t>
   </si>
   <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
@@ -275,55 +275,55 @@
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F240AA82-3B11-4D85-B2F7-CB873E1021BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CD70CE-5A65-4690-8212-E316D163D7B2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08615F31-BE9C-49FA-B818-823A3FD09C16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1734B442-0D80-4765-9F43-61A7F7B73CE9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB28B5E3-0714-4C7A-9FB1-BA8A182533F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC8B638-DFD7-4E86-8466-CCCBA1080355}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8723997A-A76B-4F94-978E-88D821B7C3E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76CAA36-ED85-4F70-B2BE-FCC96E41859F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Q5411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFA581A-D693-4142-8531-849954A31C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8153496-21EF-4ABF-84D1-1A8151BC4C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0537F74D-9E70-4998-938E-C8438B2B21F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D5D6DE9-FD98-43C4-8186-42BFAF97D925}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -98,55 +98,55 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,73 +161,73 @@
     <t>10,98%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,7%</t>
+    <t>10,77%</t>
   </si>
   <si>
     <t>16,21%</t>
@@ -236,7 +236,7 @@
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,34%</t>
+    <t>9,25%</t>
   </si>
   <si>
     <t>12,92%</t>
@@ -245,10 +245,10 @@
     <t>91,91%</t>
   </si>
   <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>86,8%</t>
@@ -257,7 +257,7 @@
     <t>83,79%</t>
   </si>
   <si>
-    <t>89,3%</t>
+    <t>89,23%</t>
   </si>
   <si>
     <t>89,01%</t>
@@ -266,7 +266,7 @@
     <t>87,08%</t>
   </si>
   <si>
-    <t>90,66%</t>
+    <t>90,75%</t>
   </si>
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CD70CE-5A65-4690-8212-E316D163D7B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E65EE0-7B16-45A4-8A80-8AB0B1C6A644}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1734B442-0D80-4765-9F43-61A7F7B73CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDD5F7B-16D2-46A9-BB0D-9006FFC5B25B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC8B638-DFD7-4E86-8466-CCCBA1080355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3503AC3A-4F46-461F-927C-9C0A9D458BA9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76CAA36-ED85-4F70-B2BE-FCC96E41859F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD62707-7838-4C31-B650-DF07EF24D722}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Q5411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8153496-21EF-4ABF-84D1-1A8151BC4C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6942B83D-B7E8-48A1-9C09-7C2B6F43E9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D5D6DE9-FD98-43C4-8186-42BFAF97D925}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B68FA647-3CF7-4A1C-B36F-F0D2FCF3FE73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>9,58%</t>
@@ -110,31 +110,31 @@
     <t>7,31%</t>
   </si>
   <si>
-    <t>11,83%</t>
+    <t>12,16%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>88,17%</t>
+    <t>87,84%</t>
   </si>
   <si>
     <t>92,69%</t>
@@ -143,10 +143,10 @@
     <t>92,13%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,55 +161,55 @@
     <t>10,98%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
@@ -218,55 +218,55 @@
     <t>8,09%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>89,01%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
@@ -275,55 +275,55 @@
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E65EE0-7B16-45A4-8A80-8AB0B1C6A644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2036D-25C4-479C-B621-493D1F6A5E83}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDD5F7B-16D2-46A9-BB0D-9006FFC5B25B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FC18D0-5E6C-40EB-9A8E-92EDB3B7539C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3503AC3A-4F46-461F-927C-9C0A9D458BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6808DBAF-0DE4-4E96-9943-55C73E62DBAA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD62707-7838-4C31-B650-DF07EF24D722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3F4C4-32A9-405C-A8AE-F7CE61742257}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Q5411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6942B83D-B7E8-48A1-9C09-7C2B6F43E9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9F1CE2-A761-4656-8A60-8579503BA933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B68FA647-3CF7-4A1C-B36F-F0D2FCF3FE73}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C52F37F4-3A71-4CA6-88D8-43CC07B7F78A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="238">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Necesita ayuda</t>
@@ -80,19 +80,133 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>5,56%</t>
@@ -149,15 +263,120 @@
     <t>93,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
     <t>10,98%</t>
   </si>
   <si>
@@ -215,6 +434,108 @@
     <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
     <t>8,09%</t>
   </si>
   <si>
@@ -272,58 +593,166 @@
     <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
 </sst>
 </file>
@@ -735,8 +1164,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2036D-25C4-479C-B621-493D1F6A5E83}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA5B81D-8118-4BA3-A974-62F92CA5FA5D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1538,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>27931</v>
+        <v>6488</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>18</v>
@@ -1553,10 +1982,10 @@
         <v>20</v>
       </c>
       <c r="H19" s="7">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>64832</v>
+        <v>12408</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>21</v>
@@ -1568,10 +1997,10 @@
         <v>23</v>
       </c>
       <c r="M19" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>92763</v>
+        <v>18896</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -1589,10 +2018,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>493</v>
+        <v>296</v>
       </c>
       <c r="D20" s="7">
-        <v>474535</v>
+        <v>286095</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>27</v>
@@ -1604,10 +2033,10 @@
         <v>29</v>
       </c>
       <c r="H20" s="7">
-        <v>602</v>
+        <v>358</v>
       </c>
       <c r="I20" s="7">
-        <v>612010</v>
+        <v>330526</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>30</v>
@@ -1619,10 +2048,10 @@
         <v>32</v>
       </c>
       <c r="M20" s="7">
-        <v>1095</v>
+        <v>654</v>
       </c>
       <c r="N20" s="7">
-        <v>1086545</v>
+        <v>616621</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>33</v>
@@ -1640,10 +2069,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -1655,10 +2084,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -1670,10 +2099,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -1687,55 +2116,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>27931</v>
+        <v>21443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H22" s="7">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>64832</v>
+        <v>52424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="N22" s="7">
-        <v>92763</v>
+        <v>73867</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,49 +2173,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>493</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7">
-        <v>474535</v>
+        <v>188440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>602</v>
+        <v>244</v>
       </c>
       <c r="I23" s="7">
-        <v>612010</v>
+        <v>281484</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M23" s="7">
-        <v>1095</v>
+        <v>441</v>
       </c>
       <c r="N23" s="7">
-        <v>1086545</v>
+        <v>469924</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,63 +2224,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>27931</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="7">
+        <v>59</v>
+      </c>
+      <c r="I25" s="7">
+        <v>64832</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="7">
+        <v>89</v>
+      </c>
+      <c r="N25" s="7">
+        <v>92763</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>493</v>
+      </c>
+      <c r="D26" s="7">
+        <v>474535</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="7">
+        <v>602</v>
+      </c>
+      <c r="I26" s="7">
+        <v>612010</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1095</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1086545</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>523</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>502466</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>661</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>676842</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1184</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1179308</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1864,8 +2449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FC18D0-5E6C-40EB-9A8E-92EDB3B7539C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31120E1-BE86-4717-8B2A-314895D397A9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1881,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2667,49 +3252,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>61456</v>
+        <v>17432</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="7">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7">
+        <v>24654</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="7">
         <v>40</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="7">
-        <v>149</v>
-      </c>
-      <c r="I19" s="7">
-        <v>163082</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="7">
-        <v>202</v>
-      </c>
       <c r="N19" s="7">
-        <v>224538</v>
+        <v>42086</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,49 +3303,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>451</v>
+        <v>266</v>
       </c>
       <c r="D20" s="7">
-        <v>498181</v>
+        <v>292354</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
-        <v>545</v>
+        <v>320</v>
       </c>
       <c r="I20" s="7">
-        <v>579893</v>
+        <v>329342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
-        <v>996</v>
+        <v>586</v>
       </c>
       <c r="N20" s="7">
-        <v>1078074</v>
+        <v>621696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,10 +3354,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -2784,10 +3369,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -2799,10 +3384,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -2816,55 +3401,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>61456</v>
+        <v>44024</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="I22" s="7">
-        <v>163082</v>
+        <v>138429</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="N22" s="7">
-        <v>224538</v>
+        <v>182452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,49 +3458,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>451</v>
+        <v>185</v>
       </c>
       <c r="D23" s="7">
-        <v>498181</v>
+        <v>205827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
-        <v>545</v>
+        <v>225</v>
       </c>
       <c r="I23" s="7">
-        <v>579893</v>
+        <v>250550</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>996</v>
+        <v>410</v>
       </c>
       <c r="N23" s="7">
-        <v>1078074</v>
+        <v>456378</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,63 +3509,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7">
+        <v>61456</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="7">
+        <v>149</v>
+      </c>
+      <c r="I25" s="7">
+        <v>163082</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="7">
+        <v>202</v>
+      </c>
+      <c r="N25" s="7">
+        <v>224538</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>451</v>
+      </c>
+      <c r="D26" s="7">
+        <v>498181</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
+        <v>545</v>
+      </c>
+      <c r="I26" s="7">
+        <v>579893</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="7">
+        <v>996</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1078074</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>504</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>559637</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>694</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>742975</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1198</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1302612</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2993,8 +3734,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6808DBAF-0DE4-4E96-9943-55C73E62DBAA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A25A25-5763-47E9-AD4F-A8CA7BDDB427}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3010,7 +3751,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3796,49 +4537,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>47855</v>
+        <v>13517</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>102686</v>
+        <v>15219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>150541</v>
+        <v>28736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,49 +4588,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>574</v>
+        <v>312</v>
       </c>
       <c r="D20" s="7">
-        <v>543473</v>
+        <v>320813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>575</v>
+        <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>675245</v>
+        <v>362543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
-        <v>1149</v>
+        <v>652</v>
       </c>
       <c r="N20" s="7">
-        <v>1218718</v>
+        <v>683356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,10 +4639,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -3913,10 +4654,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -3928,10 +4669,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -3945,55 +4686,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>47855</v>
+        <v>34338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I22" s="7">
-        <v>102686</v>
+        <v>87467</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="N22" s="7">
-        <v>150541</v>
+        <v>121805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,49 +4743,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>574</v>
+        <v>262</v>
       </c>
       <c r="D23" s="7">
-        <v>543473</v>
+        <v>222660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
-        <v>575</v>
+        <v>235</v>
       </c>
       <c r="I23" s="7">
-        <v>675245</v>
+        <v>312702</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
-        <v>1149</v>
+        <v>497</v>
       </c>
       <c r="N23" s="7">
-        <v>1218718</v>
+        <v>535362</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,63 +4794,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7">
+        <v>47855</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="7">
+        <v>80</v>
+      </c>
+      <c r="I25" s="7">
+        <v>102686</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" s="7">
+        <v>133</v>
+      </c>
+      <c r="N25" s="7">
+        <v>150541</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>574</v>
+      </c>
+      <c r="D26" s="7">
+        <v>543473</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="7">
+        <v>575</v>
+      </c>
+      <c r="I26" s="7">
+        <v>675245</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1149</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1218718</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>627</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>591328</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>655</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>777931</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1282</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1369259</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4122,8 +5019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3F4C4-32A9-405C-A8AE-F7CE61742257}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8E93D8-B93E-43D2-863F-3C0EE87C6A59}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4139,7 +5036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4925,49 +5822,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>53316</v>
+        <v>9876</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>133411</v>
+        <v>14669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="N19" s="7">
-        <v>186728</v>
+        <v>24545</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,49 +5873,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>948</v>
+        <v>554</v>
       </c>
       <c r="D20" s="7">
-        <v>643605</v>
+        <v>358289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
-        <v>1456</v>
+        <v>794</v>
       </c>
       <c r="I20" s="7">
-        <v>891742</v>
+        <v>592938</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
-        <v>2404</v>
+        <v>1348</v>
       </c>
       <c r="N20" s="7">
-        <v>1535346</v>
+        <v>951228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,10 +5924,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -5042,10 +5939,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1025153</v>
+        <v>607607</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -5057,10 +5954,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1722074</v>
+        <v>975773</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -5074,55 +5971,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>53316</v>
+        <v>39775</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="I22" s="7">
-        <v>133411</v>
+        <v>105604</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="N22" s="7">
-        <v>186728</v>
+        <v>145379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +6028,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>948</v>
+        <v>394</v>
       </c>
       <c r="D23" s="7">
-        <v>643605</v>
+        <v>242238</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="H23" s="7">
-        <v>1456</v>
+        <v>662</v>
       </c>
       <c r="I23" s="7">
-        <v>891742</v>
+        <v>319627</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="M23" s="7">
-        <v>2404</v>
+        <v>1056</v>
       </c>
       <c r="N23" s="7">
-        <v>1535346</v>
+        <v>561865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,63 +6079,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425231</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707244</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7">
+        <v>49651</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="7">
+        <v>249</v>
+      </c>
+      <c r="I25" s="7">
+        <v>120272</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="7">
+        <v>328</v>
+      </c>
+      <c r="N25" s="7">
+        <v>169923</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>948</v>
+      </c>
+      <c r="D26" s="7">
+        <v>600527</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1456</v>
+      </c>
+      <c r="I26" s="7">
+        <v>912566</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2404</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1513093</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1027</v>
       </c>
-      <c r="D24" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>1705</v>
       </c>
-      <c r="I24" s="7">
-        <v>1025153</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1032838</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>2732</v>
       </c>
-      <c r="N24" s="7">
-        <v>1722074</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="N27" s="7">
+        <v>1683016</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
